--- a/biology/Histoire de la zoologie et de la botanique/Josephus_Nicolaus_Laurenti/Josephus_Nicolaus_Laurenti.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Josephus_Nicolaus_Laurenti/Josephus_Nicolaus_Laurenti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Josephus Nicolaus Laurenti (4 décembre 1735, Vienne - 17 février 1805, Vienne), parfois incorrectement nommé Laurent, est un médecin, un zoologiste et un naturaliste autrichien.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nous connaissons peu de détails sur la vie de Laurenti. Il obtient un doctorat de médecine à Vienne en 1768 avec une thèse consacrée à la fonction venimeuse chez les reptiles et les amphibiens (Specimen Medicum, Exhibens Synopsin [sic] Reptilium Emendatam cum Experimentis circa Venena).
 On a longtemps affirmé que le véritable auteur de cette thèse était J.J. Winterl parce que ce nom apparaît sur la dernière page, mais il paraît aujourd’hui acquis que Winterl, chimiste, a bien collaboré aux expériences de Laurenti et que la thèse revient bien à ce dernier.
-Ce travail a une grande importance en herpétologie. Carl von Linné, dans l’édition de 1758 de son Systema Naturae ne définissait que neuf[1] genres de reptiles et d’amphibiens, Laurenti en définit trente-cinq[2]. Certains sont devenus très familiers, comme les genres : Bufo, Hyla, Salamandra, Gekko, Chamaeleo, Iguana, Crocodylus, Natrix, Vipera, Naja et Constrictor.
+Ce travail a une grande importance en herpétologie. Carl von Linné, dans l’édition de 1758 de son Systema Naturae ne définissait que neuf genres de reptiles et d’amphibiens, Laurenti en définit trente-cinq. Certains sont devenus très familiers, comme les genres : Bufo, Hyla, Salamandra, Gekko, Chamaeleo, Iguana, Crocodylus, Natrix, Vipera, Naja et Constrictor.
 C’est lui qui définit le premier la classe des reptilia.
 Par ailleurs, il contribue à mieux faire comprendre le mode d’action du venin de ces animaux et à faire progresser les connaissances dans les antidotes.
 </t>
